--- a/Data/lens_table.xlsx
+++ b/Data/lens_table.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12576" windowHeight="8472" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="lens1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="retina" sheetId="4" r:id="rId4"/>
+    <sheet name="lens1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>Capsule</t>
   </si>
@@ -58,30 +60,12 @@
     <t>Std. Error</t>
   </si>
   <si>
-    <t>z value</t>
-  </si>
-  <si>
-    <t>Pr(&gt;|z|)</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Cell_shape_size</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>Nuclear_staining</t>
   </si>
   <si>
-    <t>Rate Ratio</t>
-  </si>
-  <si>
     <t>Dependent Variable</t>
   </si>
   <si>
@@ -110,6 +94,66 @@
   </si>
   <si>
     <t>Retina_thickness_Reduction</t>
+  </si>
+  <si>
+    <t>0.0226 *</t>
+  </si>
+  <si>
+    <t>0.0117 *</t>
+  </si>
+  <si>
+    <t>0.0158 *</t>
+  </si>
+  <si>
+    <t>0.00173 **</t>
+  </si>
+  <si>
+    <t>0.0251 *</t>
+  </si>
+  <si>
+    <t>0.0209 *</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Std. Error </t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>p value</t>
+  </si>
+  <si>
+    <t>Cell autolysis</t>
+  </si>
+  <si>
+    <t>Pyknosis of the ONL</t>
+  </si>
+  <si>
+    <t>Pyknosis of the INL</t>
+  </si>
+  <si>
+    <t>Pyknosis of ganglion cell layer</t>
+  </si>
+  <si>
+    <t>Homogenization of photoreceptor layer</t>
+  </si>
+  <si>
+    <t>Separation of retinal layers (Neuroretina from RPE)</t>
+  </si>
+  <si>
+    <t>Homogeniszation of OPL</t>
+  </si>
+  <si>
+    <t>Homogenization of IPL</t>
+  </si>
+  <si>
+    <t>Reduction in retina thickness</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
@@ -607,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,31 +662,31 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -812,10 +856,557 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I22"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>72</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="D3">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="K3">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="L3">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>3.6637999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="L4">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>3.6637999999999997E-2</v>
+      </c>
+      <c r="K5">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="L5">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="C6">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="D6">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>3.6637999999999997E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="L6">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="D7">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="L7">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>2.443E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.226</v>
+      </c>
+      <c r="E8">
+        <v>0.112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8">
+        <v>2.443E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.226</v>
+      </c>
+      <c r="M8">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="L9">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="K10">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="L10">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="D11">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="L11">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,351 +1414,140 @@
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3.6637999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4.6695E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="E4">
+        <v>5.5259999999999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4.3822E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.8470000000000007E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.9530000000000003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3.6637999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.4489999999999999E-3</v>
+      </c>
+      <c r="E6">
+        <v>4.3360000000000003</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4.4540000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.1479999999999998E-3</v>
+      </c>
+      <c r="E7">
+        <v>10.739000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C8">
+        <v>4.1667000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>9.9889999999999996E-3</v>
+      </c>
+      <c r="E8">
+        <v>4.1710000000000003</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>-0.38993</v>
-      </c>
-      <c r="E3">
-        <f>EXP(D3)</f>
-        <v>0.67710427013820762</v>
-      </c>
-      <c r="F3">
-        <v>0.73175000000000001</v>
-      </c>
-      <c r="G3">
-        <v>-0.53300000000000003</v>
-      </c>
-      <c r="H3">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2.2120000000000001E-2</v>
-      </c>
-      <c r="E4">
-        <f>EXP(D4)</f>
-        <v>1.0223664610850243</v>
-      </c>
-      <c r="F4">
-        <v>1.3780000000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>-2.68832</v>
-      </c>
-      <c r="E6">
-        <f>EXP(D6)</f>
-        <v>6.7995075197154572E-2</v>
-      </c>
-      <c r="F6">
-        <v>1.66978</v>
-      </c>
-      <c r="G6">
-        <v>-1.61</v>
-      </c>
-      <c r="H6">
-        <v>0.1074</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>5.5079999999999997E-2</v>
-      </c>
-      <c r="E7">
-        <f>EXP(D7)</f>
-        <v>1.0566251413056884</v>
-      </c>
-      <c r="F7">
-        <v>2.5780000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <v>2.137</v>
-      </c>
-      <c r="H7">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+      <c r="C9">
+        <v>3.9510999999999998E-2</v>
       </c>
       <c r="D9">
-        <v>-0.61558000000000002</v>
+        <v>8.8470000000000007E-3</v>
       </c>
       <c r="E9">
-        <f>EXP(D9)</f>
-        <v>0.54032741450825739</v>
-      </c>
-      <c r="F9">
-        <v>0.78851000000000004</v>
-      </c>
-      <c r="G9">
-        <v>-0.78100000000000003</v>
-      </c>
-      <c r="H9">
-        <v>0.435</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>2.682E-2</v>
-      </c>
-      <c r="E10">
-        <f>EXP(D10)</f>
-        <v>1.0271828932013518</v>
-      </c>
-      <c r="F10">
-        <v>1.4239999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="H10">
-        <v>5.96E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>-0.38993</v>
-      </c>
-      <c r="E12">
-        <f>EXP(D12)</f>
-        <v>0.67710427013820762</v>
-      </c>
-      <c r="F12">
-        <v>0.73175000000000001</v>
-      </c>
-      <c r="G12">
-        <v>-0.53300000000000003</v>
-      </c>
-      <c r="H12">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>2.2120000000000001E-2</v>
-      </c>
-      <c r="E13">
-        <f>EXP(D13)</f>
-        <v>1.0223664610850243</v>
-      </c>
-      <c r="F13">
-        <v>1.3780000000000001E-2</v>
-      </c>
-      <c r="G13">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15">
-        <v>-1.52624</v>
-      </c>
-      <c r="E15">
-        <f>EXP(D15)</f>
-        <v>0.21735137399265633</v>
-      </c>
-      <c r="F15">
-        <v>1.11755</v>
-      </c>
-      <c r="G15">
-        <v>-1.3660000000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="E16">
-        <f>EXP(D16)</f>
-        <v>1.0393546586272466</v>
-      </c>
-      <c r="F16">
-        <v>1.8579999999999999E-2</v>
-      </c>
-      <c r="G16">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="H16">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>-0.28395999999999999</v>
-      </c>
-      <c r="E18">
-        <f>EXP(D18)</f>
-        <v>0.75279675597420581</v>
-      </c>
-      <c r="F18">
-        <v>0.69259999999999999</v>
-      </c>
-      <c r="G18">
-        <v>-0.41</v>
-      </c>
-      <c r="H18">
-        <v>0.68179999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>2.2380000000000001E-2</v>
-      </c>
-      <c r="E19">
-        <f>EXP(D19)</f>
-        <v>1.022632310923888</v>
-      </c>
-      <c r="F19">
-        <v>1.3010000000000001E-2</v>
-      </c>
-      <c r="G19">
-        <v>1.72</v>
-      </c>
-      <c r="H19">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>-1.9052100000000001</v>
-      </c>
-      <c r="E21">
-        <f>EXP(D21)</f>
-        <v>0.14879139314849929</v>
-      </c>
-      <c r="F21">
-        <v>1.30477</v>
-      </c>
-      <c r="G21">
-        <v>-1.46</v>
-      </c>
-      <c r="H21">
-        <v>0.14419999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>4.2070000000000003E-2</v>
-      </c>
-      <c r="E22">
-        <f>EXP(D22)</f>
-        <v>1.042967483919427</v>
-      </c>
-      <c r="F22">
-        <v>2.128E-2</v>
-      </c>
-      <c r="G22">
-        <v>1.9770000000000001</v>
-      </c>
-      <c r="H22">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>13</v>
+        <v>4.4660000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
